--- a/results/ejection_fraction_comparison_results.xlsx
+++ b/results/ejection_fraction_comparison_results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkkad\Desktop\github_repos\heart_cardiac_mri_image_processing\data_analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkkad\Desktop\github_repos\heart_cardiac_mri_image_processing\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988EB5E6-A5E4-4C8F-AA58-EFD86EC38D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3022044E-AB35-482E-BB43-249DE4C29C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10164" yWindow="2400" windowWidth="11124" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
     <t>Std Error</t>
   </si>
   <si>
-    <t>Marching Cubes</t>
+    <t>Edge Detection</t>
   </si>
   <si>
     <t>Heart failure with infarct</t>
@@ -61,10 +61,10 @@
     <t>Normal</t>
   </si>
   <si>
+    <t>Otsu</t>
+  </si>
+  <si>
     <t>Watershed</t>
-  </si>
-  <si>
-    <t>Edge Detection</t>
   </si>
 </sst>
 </file>
@@ -429,16 +429,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -469,10 +464,10 @@
         <v>7</v>
       </c>
       <c r="D2">
-        <v>12.03768911223059</v>
+        <v>14.533595111867021</v>
       </c>
       <c r="E2">
-        <v>13.53116963868135</v>
+        <v>16.148542165749522</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -486,10 +481,10 @@
         <v>8</v>
       </c>
       <c r="D3">
-        <v>195.98449100186849</v>
+        <v>102.7973195300453</v>
       </c>
       <c r="E3">
-        <v>16.23740465086442</v>
+        <v>99.284519657733725</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -503,10 +498,10 @@
         <v>9</v>
       </c>
       <c r="D4">
-        <v>139.12969927417731</v>
+        <v>101.8230655722588</v>
       </c>
       <c r="E4">
-        <v>14.880036838303241</v>
+        <v>101.4611836238015</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -520,10 +515,10 @@
         <v>7</v>
       </c>
       <c r="D5">
-        <v>15.110845585629679</v>
+        <v>16.813198102189322</v>
       </c>
       <c r="E5">
-        <v>16.791451045920741</v>
+        <v>20.0376588623262</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -537,10 +532,10 @@
         <v>8</v>
       </c>
       <c r="D6">
-        <v>165.8681147955904</v>
+        <v>100.2943306115923</v>
       </c>
       <c r="E6">
-        <v>27.278996653032319</v>
+        <v>108.1059908672057</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -554,10 +549,10 @@
         <v>9</v>
       </c>
       <c r="D7">
-        <v>117.05796284591619</v>
+        <v>50.176953938103843</v>
       </c>
       <c r="E7">
-        <v>18.51043123435031</v>
+        <v>65.902816281114156</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -571,10 +566,10 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>19.655052036391329</v>
+        <v>13.84499381841573</v>
       </c>
       <c r="E8">
-        <v>20.12392812487505</v>
+        <v>16.212580140341039</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -588,10 +583,10 @@
         <v>8</v>
       </c>
       <c r="D9">
-        <v>54.748522663978591</v>
+        <v>150.77097147398121</v>
       </c>
       <c r="E9">
-        <v>20.573987391585149</v>
+        <v>157.02951863135701</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -605,10 +600,10 @@
         <v>9</v>
       </c>
       <c r="D10">
-        <v>13.90189030222141</v>
+        <v>62.187452474357329</v>
       </c>
       <c r="E10">
-        <v>12.89567834873691</v>
+        <v>82.478070129762301</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -622,10 +617,10 @@
         <v>7</v>
       </c>
       <c r="D11">
-        <v>22.0318377319491</v>
+        <v>13.012877906533349</v>
       </c>
       <c r="E11">
-        <v>15.85739820227772</v>
+        <v>16.23338314328134</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -639,10 +634,10 @@
         <v>8</v>
       </c>
       <c r="D12">
-        <v>44.987293088577673</v>
+        <v>101.59066637534571</v>
       </c>
       <c r="E12">
-        <v>23.73204003206974</v>
+        <v>72.585021128572961</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -656,10 +651,10 @@
         <v>9</v>
       </c>
       <c r="D13">
-        <v>14.033924547349899</v>
+        <v>57.21813766268955</v>
       </c>
       <c r="E13">
-        <v>20.009258906245201</v>
+        <v>48.36376403274064</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -724,10 +719,10 @@
         <v>7</v>
       </c>
       <c r="D17">
-        <v>34.439532528504699</v>
+        <v>32.867396690934299</v>
       </c>
       <c r="E17">
-        <v>18.94421846101006</v>
+        <v>18.87231263031746</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -741,10 +736,10 @@
         <v>8</v>
       </c>
       <c r="D18">
-        <v>448.34060850217099</v>
+        <v>428.17025270436721</v>
       </c>
       <c r="E18">
-        <v>500.72980554424231</v>
+        <v>482.57526238321861</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -758,10 +753,10 @@
         <v>9</v>
       </c>
       <c r="D19">
-        <v>106.17206938067601</v>
+        <v>102.9561926671045</v>
       </c>
       <c r="E19">
-        <v>136.7910473975459</v>
+        <v>132.2540520011988</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -826,10 +821,10 @@
         <v>7</v>
       </c>
       <c r="D23">
-        <v>51.838164536490133</v>
+        <v>17.861086752801722</v>
       </c>
       <c r="E23">
-        <v>37.52774551523104</v>
+        <v>18.126721849355171</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -843,10 +838,10 @@
         <v>8</v>
       </c>
       <c r="D24">
-        <v>3389.3923043861842</v>
+        <v>293.86695966782639</v>
       </c>
       <c r="E24">
-        <v>1749.3923214978199</v>
+        <v>298.87144095546188</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -860,10 +855,10 @@
         <v>9</v>
       </c>
       <c r="D25">
-        <v>3188.5058362879281</v>
+        <v>56.02734316913179</v>
       </c>
       <c r="E25">
-        <v>2012.8366572065349</v>
+        <v>44.214879453982093</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -877,10 +872,10 @@
         <v>7</v>
       </c>
       <c r="D26">
-        <v>14.533595111867021</v>
+        <v>12.03768911223059</v>
       </c>
       <c r="E26">
-        <v>16.148542165749522</v>
+        <v>13.53116963868135</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -894,10 +889,10 @@
         <v>8</v>
       </c>
       <c r="D27">
-        <v>102.7973195300453</v>
+        <v>195.98449100186849</v>
       </c>
       <c r="E27">
-        <v>99.284519657733725</v>
+        <v>16.23740465086442</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -911,10 +906,10 @@
         <v>9</v>
       </c>
       <c r="D28">
-        <v>101.8230655722588</v>
+        <v>139.12969927417731</v>
       </c>
       <c r="E28">
-        <v>101.4611836238015</v>
+        <v>14.880036838303241</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -928,10 +923,10 @@
         <v>7</v>
       </c>
       <c r="D29">
-        <v>16.813198102189322</v>
+        <v>15.110845585629679</v>
       </c>
       <c r="E29">
-        <v>20.0376588623262</v>
+        <v>16.791451045920741</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -945,10 +940,10 @@
         <v>8</v>
       </c>
       <c r="D30">
-        <v>100.2943306115923</v>
+        <v>165.8681147955904</v>
       </c>
       <c r="E30">
-        <v>108.1059908672057</v>
+        <v>27.278996653032319</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -962,10 +957,10 @@
         <v>9</v>
       </c>
       <c r="D31">
-        <v>50.176953938103843</v>
+        <v>117.05796284591619</v>
       </c>
       <c r="E31">
-        <v>65.902816281114156</v>
+        <v>18.51043123435031</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -979,10 +974,10 @@
         <v>7</v>
       </c>
       <c r="D32">
-        <v>13.84499381841573</v>
+        <v>19.655052036391329</v>
       </c>
       <c r="E32">
-        <v>16.212580140341039</v>
+        <v>20.12392812487505</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -996,10 +991,10 @@
         <v>8</v>
       </c>
       <c r="D33">
-        <v>150.77097147398121</v>
+        <v>54.748522663978591</v>
       </c>
       <c r="E33">
-        <v>157.02951863135701</v>
+        <v>20.573987391585149</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -1013,10 +1008,10 @@
         <v>9</v>
       </c>
       <c r="D34">
-        <v>62.187452474357329</v>
+        <v>13.90189030222141</v>
       </c>
       <c r="E34">
-        <v>82.478070129762301</v>
+        <v>12.89567834873691</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -1030,10 +1025,10 @@
         <v>7</v>
       </c>
       <c r="D35">
-        <v>13.012877906533349</v>
+        <v>22.0318377319491</v>
       </c>
       <c r="E35">
-        <v>16.23338314328134</v>
+        <v>15.85739820227772</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -1047,10 +1042,10 @@
         <v>8</v>
       </c>
       <c r="D36">
-        <v>101.59066637534571</v>
+        <v>44.987293088577673</v>
       </c>
       <c r="E36">
-        <v>72.585021128572961</v>
+        <v>23.73204003206974</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -1064,10 +1059,10 @@
         <v>9</v>
       </c>
       <c r="D37">
-        <v>57.21813766268955</v>
+        <v>14.033924547349899</v>
       </c>
       <c r="E37">
-        <v>48.36376403274064</v>
+        <v>20.009258906245201</v>
       </c>
     </row>
   </sheetData>

--- a/results/ejection_fraction_comparison_results.xlsx
+++ b/results/ejection_fraction_comparison_results.xlsx
@@ -8,19 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkkad\Desktop\github_repos\heart_cardiac_mri_image_processing\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3022044E-AB35-482E-BB43-249DE4C29C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B17741C-0599-4AE1-801E-20050ABAB3EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10164" yWindow="2400" windowWidth="11124" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$38</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="20">
   <si>
     <t>Technique</t>
   </si>
@@ -65,13 +69,31 @@
   </si>
   <si>
     <t>Watershed</t>
+  </si>
+  <si>
+    <t>Mean Error - End-Diastolic Volume (mL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean Error - Ejection Fraction (%) </t>
+  </si>
+  <si>
+    <t>Mean Error - End-Systolic Volume (mL)</t>
+  </si>
+  <si>
+    <t>Diagnosis</t>
+  </si>
+  <si>
+    <t>`</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,14 +105,35 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -120,10 +163,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -427,16 +492,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E37"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:U38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16:D25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="20" width="13.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -453,7 +530,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -463,14 +540,14 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>14.533595111867021</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>16.148542165749522</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -480,14 +557,14 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>102.7973195300453</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <v>99.284519657733725</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -497,14 +574,14 @@
       <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>101.8230655722588</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>101.4611836238015</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -514,14 +591,17 @@
       <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>16.813198102189322</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>20.0376588623262</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+    </row>
+    <row r="6" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -531,14 +611,14 @@
       <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>100.2943306115923</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <v>108.1059908672057</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -548,14 +628,14 @@
       <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>50.176953938103843</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <v>65.902816281114156</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -565,14 +645,14 @@
       <c r="C8" t="s">
         <v>7</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>13.84499381841573</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <v>16.212580140341039</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -582,14 +662,14 @@
       <c r="C9" t="s">
         <v>8</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>150.77097147398121</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <v>157.02951863135701</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -599,14 +679,14 @@
       <c r="C10" t="s">
         <v>9</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
         <v>62.187452474357329</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="3">
         <v>82.478070129762301</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -616,14 +696,14 @@
       <c r="C11" t="s">
         <v>7</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="3">
         <v>13.012877906533349</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="3">
         <v>16.23338314328134</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -633,14 +713,14 @@
       <c r="C12" t="s">
         <v>8</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="3">
         <v>101.59066637534571</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="3">
         <v>72.585021128572961</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -650,14 +730,14 @@
       <c r="C13" t="s">
         <v>9</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="3">
         <v>57.21813766268955</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="3">
         <v>48.36376403274064</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -667,14 +747,14 @@
       <c r="C14" t="s">
         <v>7</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="3">
         <v>19.046249674850269</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="3">
         <v>18.071493148317789</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -684,14 +764,14 @@
       <c r="C15" t="s">
         <v>8</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="3">
         <v>160.93407852332771</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="3">
         <v>175.23920766845151</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -701,14 +781,17 @@
       <c r="C16" t="s">
         <v>9</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="3">
         <v>99.609321490623145</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="3">
         <v>114.3634781879454</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="J16" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -718,14 +801,14 @@
       <c r="C17" t="s">
         <v>7</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="3">
         <v>32.867396690934299</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="3">
         <v>18.87231263031746</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -735,10 +818,10 @@
       <c r="C18" t="s">
         <v>8</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="3">
         <v>428.17025270436721</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="3">
         <v>482.57526238321861</v>
       </c>
     </row>
@@ -752,14 +835,14 @@
       <c r="C19" t="s">
         <v>9</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="3">
         <v>102.9561926671045</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="3">
         <v>132.2540520011988</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -769,14 +852,14 @@
       <c r="C20" t="s">
         <v>7</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="3">
         <v>22.065899820627099</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="3">
         <v>24.132012921552128</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -786,10 +869,10 @@
       <c r="C21" t="s">
         <v>8</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="3">
         <v>618.327009007686</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="3">
         <v>690.04536156035238</v>
       </c>
     </row>
@@ -803,14 +886,14 @@
       <c r="C22" t="s">
         <v>9</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="3">
         <v>341.81342181864341</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="3">
         <v>460.65650827792138</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -820,14 +903,14 @@
       <c r="C23" t="s">
         <v>7</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="3">
         <v>17.861086752801722</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="3">
         <v>18.126721849355171</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -837,10 +920,10 @@
       <c r="C24" t="s">
         <v>8</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="3">
         <v>293.86695966782639</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="3">
         <v>298.87144095546188</v>
       </c>
     </row>
@@ -854,14 +937,14 @@
       <c r="C25" t="s">
         <v>9</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="3">
         <v>56.02734316913179</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="3">
         <v>44.214879453982093</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -871,14 +954,14 @@
       <c r="C26" t="s">
         <v>7</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="3">
         <v>12.03768911223059</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="3">
         <v>13.53116963868135</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -888,14 +971,14 @@
       <c r="C27" t="s">
         <v>8</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="3">
         <v>195.98449100186849</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="3">
         <v>16.23740465086442</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -905,14 +988,14 @@
       <c r="C28" t="s">
         <v>9</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="3">
         <v>139.12969927417731</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="3">
         <v>14.880036838303241</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -922,14 +1005,14 @@
       <c r="C29" t="s">
         <v>7</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="3">
         <v>15.110845585629679</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="3">
         <v>16.791451045920741</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -939,14 +1022,14 @@
       <c r="C30" t="s">
         <v>8</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="3">
         <v>165.8681147955904</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="3">
         <v>27.278996653032319</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>14</v>
       </c>
@@ -956,14 +1039,14 @@
       <c r="C31" t="s">
         <v>9</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="3">
         <v>117.05796284591619</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="3">
         <v>18.51043123435031</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>14</v>
       </c>
@@ -973,14 +1056,14 @@
       <c r="C32" t="s">
         <v>7</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="3">
         <v>19.655052036391329</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="3">
         <v>20.12392812487505</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>14</v>
       </c>
@@ -990,14 +1073,14 @@
       <c r="C33" t="s">
         <v>8</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="3">
         <v>54.748522663978591</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="3">
         <v>20.573987391585149</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>14</v>
       </c>
@@ -1007,14 +1090,14 @@
       <c r="C34" t="s">
         <v>9</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="3">
         <v>13.90189030222141</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="3">
         <v>12.89567834873691</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>14</v>
       </c>
@@ -1024,14 +1107,14 @@
       <c r="C35" t="s">
         <v>7</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="3">
         <v>22.0318377319491</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="3">
         <v>15.85739820227772</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>14</v>
       </c>
@@ -1041,14 +1124,14 @@
       <c r="C36" t="s">
         <v>8</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="3">
         <v>44.987293088577673</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="3">
         <v>23.73204003206974</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>14</v>
       </c>
@@ -1058,14 +1141,242 @@
       <c r="C37" t="s">
         <v>9</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="3">
         <v>14.033924547349899</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="3">
         <v>20.009258906245201</v>
       </c>
     </row>
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.3"/>
   </sheetData>
+  <autoFilter ref="A1:E38" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Otsu"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="2">
+      <filters>
+        <filter val="End-Systolic Volume (mL)"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <mergeCells count="1">
+    <mergeCell ref="S5:U5"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{977411D0-CA0C-4274-8E3B-D2FCFD47A3EA}">
+  <dimension ref="D8:M13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8:M8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="17.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="11.21875" customWidth="1"/>
+    <col min="7" max="7" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="10" max="10" width="8.33203125" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" customWidth="1"/>
+    <col min="13" max="13" width="8.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+    </row>
+    <row r="9" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D9" s="4"/>
+      <c r="E9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="7">
+        <v>14.533595111867021</v>
+      </c>
+      <c r="F10" s="9">
+        <v>12.03768911223059</v>
+      </c>
+      <c r="G10" s="7">
+        <v>19.046249674850269</v>
+      </c>
+      <c r="H10" s="9">
+        <v>102.7973195300453</v>
+      </c>
+      <c r="I10" s="7">
+        <v>195.98449100186849</v>
+      </c>
+      <c r="J10" s="7">
+        <v>160.93407852332771</v>
+      </c>
+      <c r="K10" s="7">
+        <v>101.8230655722588</v>
+      </c>
+      <c r="L10" s="7">
+        <v>139.12969927417731</v>
+      </c>
+      <c r="M10" s="9">
+        <v>99.609321490623145</v>
+      </c>
+    </row>
+    <row r="11" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="7">
+        <v>16.813198102189322</v>
+      </c>
+      <c r="F11" s="9">
+        <v>15.110845585629679</v>
+      </c>
+      <c r="G11" s="7">
+        <v>32.867396690934299</v>
+      </c>
+      <c r="H11" s="9">
+        <v>100.2943306115923</v>
+      </c>
+      <c r="I11" s="7">
+        <v>165.8681147955904</v>
+      </c>
+      <c r="J11" s="7">
+        <v>428.17025270436721</v>
+      </c>
+      <c r="K11" s="9">
+        <v>50.176953938103843</v>
+      </c>
+      <c r="L11" s="7">
+        <v>117.05796284591619</v>
+      </c>
+      <c r="M11" s="7">
+        <v>102.9561926671045</v>
+      </c>
+    </row>
+    <row r="12" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="9">
+        <v>13.84499381841573</v>
+      </c>
+      <c r="F12" s="7">
+        <v>19.655052036391329</v>
+      </c>
+      <c r="G12" s="7">
+        <v>22.065899820627099</v>
+      </c>
+      <c r="H12" s="7">
+        <v>150.77097147398121</v>
+      </c>
+      <c r="I12" s="9">
+        <v>54.748522663978591</v>
+      </c>
+      <c r="J12" s="7">
+        <v>618.327009007686</v>
+      </c>
+      <c r="K12" s="7">
+        <v>62.187452474357329</v>
+      </c>
+      <c r="L12" s="9">
+        <v>13.90189030222141</v>
+      </c>
+      <c r="M12" s="7">
+        <v>341.81342181864341</v>
+      </c>
+    </row>
+    <row r="13" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="9">
+        <v>13.012877906533349</v>
+      </c>
+      <c r="F13" s="7">
+        <v>22.0318377319491</v>
+      </c>
+      <c r="G13" s="7">
+        <v>17.861086752801722</v>
+      </c>
+      <c r="H13" s="7">
+        <v>101.59066637534571</v>
+      </c>
+      <c r="I13" s="9">
+        <v>44.987293088577673</v>
+      </c>
+      <c r="J13" s="7">
+        <v>293.86695966782639</v>
+      </c>
+      <c r="K13" s="7">
+        <v>57.21813766268955</v>
+      </c>
+      <c r="L13" s="9">
+        <v>14.033924547349899</v>
+      </c>
+      <c r="M13" s="7">
+        <v>56.02734316913179</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="D8:D9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>